--- a/code_data/2024-CA-GDP-TOTAL.xlsx
+++ b/code_data/2024-CA-GDP-TOTAL.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allegrasaggese/Documents/GitHub/econ221_fall2025/research_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allegrasaggese/Documents/GitHub/econ221_fall2025/code_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9A8059B-BF7A-094D-BCCA-AC1EF34633CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4D42A-67EB-9A45-BC5C-2593723F2248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2080" windowWidth="21700" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="2080" windowWidth="21700" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CA GDP levels &amp; growth" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CA GDP levels &amp; growth'!$A$1:$H$108</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>(Millions of dollars)</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t>CALIFORNIA STATE GROSS DOMESTIC PRODUCT (GDP), 1963 TO 2023</t>
+  </si>
+  <si>
+    <t>gdp_nominal_dollars</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -815,11 +822,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
@@ -3430,6 +3437,241 @@
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup scale="89" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167686B5-D55D-F74C-9088-80A6BC20F0B6}">
+  <dimension ref="B2:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="17" thickBot="1">
+      <c r="B2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="16">
+      <c r="B3" s="30">
+        <v>1997</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1071117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16">
+      <c r="B4" s="31">
+        <v>1998</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1147520.3999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16">
+      <c r="B5" s="31">
+        <v>1999</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1241899.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16">
+      <c r="B6" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1356975.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16">
+      <c r="B7" s="31">
+        <v>2001</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1375761.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16">
+      <c r="B8" s="31">
+        <v>2002</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1418429.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16">
+      <c r="B9" s="31">
+        <v>2003</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1497918.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16">
+      <c r="B10" s="31">
+        <v>2004</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1588177.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16">
+      <c r="B11" s="31">
+        <v>2005</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1698560.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16">
+      <c r="B12" s="31">
+        <v>2006</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1812210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="16">
+      <c r="B13" s="31">
+        <v>2007</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1898902</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="16">
+      <c r="B14" s="31">
+        <v>2008</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1944695.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="16">
+      <c r="B15" s="31">
+        <v>2009</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1890165.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16">
+      <c r="B16" s="31">
+        <v>2010</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1954092.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16">
+      <c r="B17" s="31">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2023500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16">
+      <c r="B18" s="31">
+        <v>2012</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2113096.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16">
+      <c r="B19" s="31">
+        <v>2013</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2220389.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16">
+      <c r="B20" s="31">
+        <v>2014</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2335286.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="16">
+      <c r="B21" s="31">
+        <v>2015</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2473555.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="16">
+      <c r="B22" s="31">
+        <v>2016</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2569634</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="16">
+      <c r="B23" s="31">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2728743.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16">
+      <c r="B24" s="31">
+        <v>2018</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2897200.7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="16">
+      <c r="B25" s="31">
+        <v>2019</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3042694.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="16">
+      <c r="B26" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3020173.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="16">
+      <c r="B27" s="31">
+        <v>2021</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3373240.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="16">
+      <c r="B28" s="31">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3598102.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3680,15 +3922,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="50b4d822-f145-40b1-b502-720eef342d4b" xsi:nil="true"/>
@@ -3699,6 +3932,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3722,14 +3964,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CA59370-32CD-4A25-BCC6-E592971323E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362F6D79-8FDE-4492-A5FE-1968AD8D0BAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="4ca643c4-7cca-4cf7-9b44-d1a48358ecdb"/>
@@ -3745,4 +3979,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CA59370-32CD-4A25-BCC6-E592971323E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>